--- a/inst/templates/templateProject/Parameters/Scenarios.xlsx
+++ b/inst/templates/templateProject/Parameters/Scenarios.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27628"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Work\OSPS\Repos\esqlabsR\inst\extdata\examples\TestProject\Parameters\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9A63FBE1-467D-4232-9F55-ECF0D3C7D94E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F466A1-7C06-42AC-A128-135F8C8CDB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="8" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
   <si>
     <t>SimulationTime</t>
   </si>
@@ -97,48 +97,15 @@
     <t>SteadyState</t>
   </si>
   <si>
-    <t>TestScenario</t>
-  </si>
-  <si>
-    <t>Indiv1</t>
-  </si>
-  <si>
-    <t>Aciclovir_iv_250mg</t>
-  </si>
-  <si>
-    <t>Global</t>
-  </si>
-  <si>
-    <t>h</t>
-  </si>
-  <si>
-    <t>Aciclovir.pkml</t>
-  </si>
-  <si>
-    <t>TestScenario2</t>
-  </si>
-  <si>
-    <t>Indiv</t>
-  </si>
-  <si>
     <t>SteadyStateTime</t>
   </si>
   <si>
     <t>SteadyStateTimeUnit</t>
   </si>
   <si>
-    <t>min</t>
-  </si>
-  <si>
     <t>PopulationId</t>
   </si>
   <si>
-    <t>PopulationScenario</t>
-  </si>
-  <si>
-    <t>TestPopulation</t>
-  </si>
-  <si>
     <t>OutputPathsIds</t>
   </si>
   <si>
@@ -160,28 +127,22 @@
     <t>Organism|Fat|Intracellular|Aciclovir|Concentration in container</t>
   </si>
   <si>
-    <t>Aciclovir_PVB, Aciclovir_fat_cell</t>
-  </si>
-  <si>
     <t>ReadPopulationFromCSV</t>
   </si>
   <si>
-    <t>PopulationScenarioFromCSV</t>
-  </si>
-  <si>
-    <t>0, 24, 60</t>
-  </si>
-  <si>
-    <t>0, 1, 60; 1, 12, 20</t>
-  </si>
-  <si>
-    <t>0, 12, 20</t>
-  </si>
-  <si>
-    <t>Global, MissingParam</t>
-  </si>
-  <si>
-    <t>TestScenario_missingParam</t>
+    <t>Amikacin 15mg_kg.pkml</t>
+  </si>
+  <si>
+    <t>MALE</t>
+  </si>
+  <si>
+    <t>FEMALE</t>
+  </si>
+  <si>
+    <t>TestScenarioF</t>
+  </si>
+  <si>
+    <t>TestScenarioM</t>
   </si>
 </sst>
 </file>
@@ -243,7 +204,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -521,30 +482,30 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A1BACA-04A5-4461-B34D-CB73BA82CEC5}">
-  <dimension ref="A1:M6"/>
+  <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.15625" customWidth="1"/>
-    <col min="2" max="2" width="11.578125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="14.578125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="23.578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="22.578125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="18.83984375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.15625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.15625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="11.578125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="16.15625" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="20.15625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="13.68359375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="23.140625" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="18.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.5703125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.140625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="13.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="30" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>3</v>
       </c>
@@ -552,10 +513,10 @@
         <v>2</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>19</v>
+        <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -573,161 +534,38 @@
         <v>7</v>
       </c>
       <c r="J1" s="1" t="s">
-        <v>16</v>
+        <v>8</v>
       </c>
       <c r="K1" s="1" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="L1" s="1" t="s">
         <v>6</v>
       </c>
       <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>8</v>
-      </c>
-      <c r="B2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>10</v>
-      </c>
-      <c r="G2" t="s">
-        <v>32</v>
-      </c>
-      <c r="H2" t="s">
-        <v>12</v>
-      </c>
-      <c r="L2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>14</v>
-      </c>
       <c r="B3" t="s">
-        <v>15</v>
-      </c>
-      <c r="E3" t="s">
-        <v>11</v>
-      </c>
-      <c r="F3" t="s">
-        <v>10</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>12</v>
-      </c>
-      <c r="I3" t="b">
-        <v>1</v>
-      </c>
-      <c r="J3">
-        <v>500</v>
-      </c>
-      <c r="K3" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="L3" t="s">
-        <v>13</v>
-      </c>
-      <c r="M3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>20</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D4" t="b">
-        <v>0</v>
-      </c>
-      <c r="E4" t="s">
-        <v>11</v>
-      </c>
-      <c r="F4" t="s">
-        <v>10</v>
-      </c>
-      <c r="G4" t="s">
-        <v>34</v>
-      </c>
-      <c r="H4" t="s">
-        <v>12</v>
-      </c>
-      <c r="I4" t="b">
-        <v>0</v>
-      </c>
-      <c r="L4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>31</v>
-      </c>
-      <c r="B5" t="s">
-        <v>9</v>
-      </c>
-      <c r="C5" t="s">
-        <v>21</v>
-      </c>
-      <c r="D5" t="b">
-        <v>1</v>
-      </c>
-      <c r="E5" t="s">
-        <v>11</v>
-      </c>
-      <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>34</v>
-      </c>
-      <c r="H5" t="s">
-        <v>12</v>
-      </c>
-      <c r="I5" t="b">
-        <v>0</v>
-      </c>
-      <c r="L5" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>36</v>
-      </c>
-      <c r="B6" t="s">
-        <v>9</v>
-      </c>
-      <c r="E6" t="s">
-        <v>35</v>
-      </c>
-      <c r="F6" t="s">
-        <v>10</v>
-      </c>
-      <c r="G6" t="s">
-        <v>32</v>
-      </c>
-      <c r="H6" t="s">
-        <v>12</v>
-      </c>
-      <c r="L6" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
   </sheetData>
@@ -745,34 +583,34 @@
       <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="16.26171875" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.26171875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>24</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>25</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>27</v>
+        <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="B3" t="s">
-        <v>28</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/inst/templates/templateProject/Parameters/Scenarios.xlsx
+++ b/inst/templates/templateProject/Parameters/Scenarios.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51F466A1-7C06-42AC-A128-135F8C8CDB39}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA824EC-6E05-4B7C-AC7B-7C8AFDED0DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -130,9 +130,6 @@
     <t>ReadPopulationFromCSV</t>
   </si>
   <si>
-    <t>Amikacin 15mg_kg.pkml</t>
-  </si>
-  <si>
     <t>MALE</t>
   </si>
   <si>
@@ -143,6 +140,9 @@
   </si>
   <si>
     <t>TestScenarioM</t>
+  </si>
+  <si>
+    <t>Aciclovir.pkml</t>
   </si>
 </sst>
 </file>
@@ -485,7 +485,7 @@
   <dimension ref="A1:M3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -548,24 +548,24 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B2" t="s">
+        <v>19</v>
+      </c>
+      <c r="L2" t="s">
         <v>23</v>
-      </c>
-      <c r="B2" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" t="s">
-        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>19</v>
+        <v>23</v>
       </c>
     </row>
   </sheetData>
@@ -631,6 +631,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b3e823de345af38b5a0fa8b2c9729ead">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fae56da9623201e330c5b1623e145d1" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -867,15 +876,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2633B21-6509-4402-A676-EEE1878D6EA1}">
   <ds:schemaRefs>
@@ -888,6 +888,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FCC551-4FF5-46A3-9024-D54BBA18C5A1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9A7DEF-8D50-4222-A255-A8C989265833}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -904,12 +912,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FCC551-4FF5-46A3-9024-D54BBA18C5A1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/inst/templates/templateProject/Parameters/Scenarios.xlsx
+++ b/inst/templates/templateProject/Parameters/Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBA824EC-6E05-4B7C-AC7B-7C8AFDED0DAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1046A4-BFE4-46F8-9172-54D7FBB52722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="8" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>SimulationTime</t>
   </si>
@@ -143,6 +143,12 @@
   </si>
   <si>
     <t>Aciclovir.pkml</t>
+  </si>
+  <si>
+    <t>MolWeight</t>
+  </si>
+  <si>
+    <t>DisplayName</t>
   </si>
 </sst>
 </file>
@@ -484,7 +490,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A1BACA-04A5-4461-B34D-CB73BA82CEC5}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="L3" sqref="L3"/>
     </sheetView>
   </sheetViews>
@@ -577,27 +583,34 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA486CF-725F-421A-8D45-E3AE92A4A2C0}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.85546875" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="C1" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>25</v>
+      </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -605,7 +618,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>

--- a/inst/templates/templateProject/Parameters/Scenarios.xlsx
+++ b/inst/templates/templateProject/Parameters/Scenarios.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1046A4-BFE4-46F8-9172-54D7FBB52722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D1BF13-58F6-429C-B93B-192DA5FF2648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="8" r:id="rId1"/>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>SimulationTime</t>
   </si>
@@ -136,12 +136,6 @@
     <t>FEMALE</t>
   </si>
   <si>
-    <t>TestScenarioF</t>
-  </si>
-  <si>
-    <t>TestScenarioM</t>
-  </si>
-  <si>
     <t>Aciclovir.pkml</t>
   </si>
   <si>
@@ -149,6 +143,18 @@
   </si>
   <si>
     <t>DisplayName</t>
+  </si>
+  <si>
+    <t>DisplayUnit</t>
+  </si>
+  <si>
+    <t>Color</t>
+  </si>
+  <si>
+    <t>test_scenario_male</t>
+  </si>
+  <si>
+    <t>test_scenario_female</t>
   </si>
 </sst>
 </file>
@@ -490,8 +496,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A1BACA-04A5-4461-B34D-CB73BA82CEC5}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L3" sqref="L3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -554,24 +560,24 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="B2" t="s">
         <v>19</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="B3" t="s">
         <v>20</v>
       </c>
       <c r="L3" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>
@@ -583,10 +589,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA486CF-725F-421A-8D45-E3AE92A4A2C0}">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:F3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -594,9 +600,11 @@
     <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="14.85546875" customWidth="1"/>
     <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>12</v>
       </c>
@@ -604,13 +612,19 @@
         <v>13</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="F1" s="1" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>14</v>
       </c>
@@ -618,7 +632,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>15</v>
       </c>
@@ -633,17 +647,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <?mso-contentType ?>
 <FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
   <Display>DocumentLibraryForm</Display>
@@ -652,7 +655,7 @@
 </FormTemplates>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b3e823de345af38b5a0fa8b2c9729ead">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fae56da9623201e330c5b1623e145d1" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -889,18 +892,18 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2633B21-6509-4402-A676-EEE1878D6EA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FCC551-4FF5-46A3-9024-D54BBA18C5A1}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
@@ -908,7 +911,7 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9A7DEF-8D50-4222-A255-A8C989265833}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -925,4 +928,15 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2633B21-6509-4402-A676-EEE1878D6EA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/inst/templates/templateProject/Parameters/Scenarios.xlsx
+++ b/inst/templates/templateProject/Parameters/Scenarios.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ztcok\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{55D1BF13-58F6-429C-B93B-192DA5FF2648}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB87ED95-57C1-4BBB-87F1-8F025CEFE140}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Scenarios" sheetId="8" r:id="rId1"/>
-    <sheet name="OutputPaths" sheetId="9" r:id="rId2"/>
+    <sheet name="OutputPaths" sheetId="10" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -71,7 +71,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="19">
   <si>
     <t>SimulationTime</t>
   </si>
@@ -109,24 +109,6 @@
     <t>OutputPathsIds</t>
   </si>
   <si>
-    <t>OutputPathId</t>
-  </si>
-  <si>
-    <t>OutputPath</t>
-  </si>
-  <si>
-    <t>Aciclovir_PVB</t>
-  </si>
-  <si>
-    <t>Aciclovir_fat_cell</t>
-  </si>
-  <si>
-    <t>Organism|PeripheralVenousBlood|Aciclovir|Plasma (Peripheral Venous Blood)</t>
-  </si>
-  <si>
-    <t>Organism|Fat|Intracellular|Aciclovir|Concentration in container</t>
-  </si>
-  <si>
     <t>ReadPopulationFromCSV</t>
   </si>
   <si>
@@ -139,22 +121,13 @@
     <t>Aciclovir.pkml</t>
   </si>
   <si>
-    <t>MolWeight</t>
-  </si>
-  <si>
-    <t>DisplayName</t>
-  </si>
-  <si>
-    <t>DisplayUnit</t>
-  </si>
-  <si>
-    <t>Color</t>
-  </si>
-  <si>
     <t>test_scenario_male</t>
   </si>
   <si>
     <t>test_scenario_female</t>
+  </si>
+  <si>
+    <t>OutputPaths</t>
   </si>
 </sst>
 </file>
@@ -496,8 +469,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{84A1BACA-04A5-4461-B34D-CB73BA82CEC5}">
   <dimension ref="A1:M3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M1" sqref="M1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -528,7 +501,7 @@
         <v>10</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>18</v>
+        <v>12</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>1</v>
@@ -560,24 +533,24 @@
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>16</v>
       </c>
       <c r="B2" t="s">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="L3" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
@@ -588,61 +561,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CAA486CF-725F-421A-8D45-E3AE92A4A2C0}">
-  <dimension ref="A1:F3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CC39008-E9E9-4EF8-AE4C-88A9D25FC3B2}">
+  <dimension ref="A1:B1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.85546875" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.28515625" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>12</v>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>18</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>14</v>
-      </c>
-      <c r="B2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>15</v>
-      </c>
-      <c r="B3" t="s">
-        <v>17</v>
+        <v>11</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId1"/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -656,6 +593,17 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Dokument" ma:contentTypeID="0x01010011DB5BA7A27696418C6D2C8B46A68E83" ma:contentTypeVersion="17" ma:contentTypeDescription="Ein neues Dokument erstellen." ma:contentTypeScope="" ma:versionID="b3e823de345af38b5a0fa8b2c9729ead">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="398d2b5b-77f8-4c5f-a794-3d35ce849315" xmlns:ns3="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="7fae56da9623201e330c5b1623e145d1" ns2:_="" ns3:_="">
     <xsd:import namespace="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
@@ -892,17 +840,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="398d2b5b-77f8-4c5f-a794-3d35ce849315">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="1c52e43a-7a2d-43c4-9ede-f251c929c0a1" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{46FCC551-4FF5-46A3-9024-D54BBA18C5A1}">
   <ds:schemaRefs>
@@ -912,6 +849,17 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2633B21-6509-4402-A676-EEE1878D6EA1}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
+    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FB9A7DEF-8D50-4222-A255-A8C989265833}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -928,15 +876,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E2633B21-6509-4402-A676-EEE1878D6EA1}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="398d2b5b-77f8-4c5f-a794-3d35ce849315"/>
-    <ds:schemaRef ds:uri="1c52e43a-7a2d-43c4-9ede-f251c929c0a1"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>